--- a/wildlife/reports/Seychelles/composition/Port Launay/Trees/composition.xlsx
+++ b/wildlife/reports/Seychelles/composition/Port Launay/Trees/composition.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
